--- a/assets/files/downloads/cyb/Cybersecurity-Services(SOC)-Business-Capabilities.xlsx
+++ b/assets/files/downloads/cyb/Cybersecurity-Services(SOC)-Business-Capabilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="19420" windowHeight="11020" tabRatio="754" activeTab="7"/>
+    <workbookView activeTab="3" tabRatio="754" windowHeight="11020" windowWidth="19420" xWindow="-28920" yWindow="-60"/>
   </bookViews>
   <sheets>
     <sheet name="Cover " sheetId="10" r:id="rId1"/>
@@ -2667,48 +2667,50 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t>The worksheets in this workbook identify and provide background information for the</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Real Property Management</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF5B9BD5"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Business Capabilities. </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2721,10 +2723,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t>Real Property Management Business Capabilities workbook</t>
@@ -2763,19 +2765,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t>Service Activities</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t>, and Service Activity descriptions within a Service Area.  Business Capabilities are developed to enable the listed Service Activities.</t>
@@ -2805,19 +2809,21 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t>Business Capabilities</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> within a Service Area.  Service Area experts will determine the  Authoritative Source(s) for development of Business Capabilities, if an Authoritative Source is available. </t>
@@ -2891,153 +2897,174 @@
   <si>
     <t xml:space="preserve">Maintain awareness of emerging technologies for SOC personnel to implement into existing tactics, techniques, and procedures.  </t>
   </si>
+  <si>
+    <t>Federal Financial Management</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>Federal Regulation Management</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" mc:Ignorable="x14ac">
+  <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Verdana"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF0563C1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="22"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF5B9BD5"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3050,13 +3077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF5B9BD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E2F3"/>
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -3074,7 +3101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDEEAF6"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -3086,7 +3113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,7 +3131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FF5B9BD5"/>
         <bgColor theme="6"/>
       </patternFill>
     </fill>
@@ -3117,483 +3144,523 @@
   </fills>
   <borders count="37">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
+      <right style="none">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin"/>
+      <top style="none">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3601,7 +3668,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3623,7 +3690,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3644,7 +3711,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3656,7 +3723,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3668,32 +3735,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3721,7 +3788,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3787,7 +3854,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3796,10 +3863,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3899,6 +3966,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5076,14 +5147,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="52.453125" customWidth="1"/>
@@ -5093,8 +5163,8 @@
     <row r="4" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M4" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:4" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="23" spans="1:4" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row ht="27.4" customHeight="1" r="24" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>36</v>
       </c>
@@ -5108,9 +5178,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="25" spans="1:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A25" s="75">
-        <v>0.13793103448275862</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="B25" s="14">
         <v>43951</v>
@@ -5120,37 +5190,37 @@
       </c>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="16.5" r="26" spans="1:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15.5" r="27" spans="1:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15.5" r="28" spans="1:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15.5" r="29" spans="1:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15.5" r="30" spans="1:4" thickBot="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row ht="15" r="31" spans="1:4" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5165,24 +5235,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomScaleNormal="85" zoomScaleSheetLayoutView="70">
+      <selection pane="topLeft" activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="27.7265625" customWidth="1"/>
     <col min="3" max="3" width="86.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="56.25" customHeight="1" r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" s="106" t="s">
         <v>859</v>
       </c>
@@ -5196,7 +5265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="33.75" customHeight="1" r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="78" t="s">
         <v>25</v>
       </c>
@@ -5207,7 +5276,7 @@
       <c r="E3" s="84"/>
       <c r="F3" s="84"/>
     </row>
-    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="26.25" customHeight="1" r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="78" t="s">
         <v>26</v>
       </c>
@@ -5218,7 +5287,7 @@
       <c r="E4" s="85"/>
       <c r="F4" s="85"/>
     </row>
-    <row r="5" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="61.5" customHeight="1" r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="78" t="s">
         <v>35</v>
       </c>
@@ -5229,7 +5298,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="2:6" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="30.65" customHeight="1" r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="81" t="s">
         <v>40</v>
       </c>
@@ -5237,7 +5306,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="43" customHeight="1" r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="78" t="s">
         <v>864</v>
       </c>
@@ -5245,7 +5314,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="40.5" customHeight="1" r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="78" t="s">
         <v>866</v>
       </c>
@@ -5253,7 +5322,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="15" r="9" spans="2:6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="82" t="s">
         <v>868</v>
       </c>
@@ -5282,22 +5351,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomScaleNormal="85" zoomScalePageLayoutView="90">
+      <selection pane="topLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12" style="47" customWidth="1"/>
     <col min="2" max="2" width="22.54296875" style="47" customWidth="1"/>
     <col min="3" max="3" width="68.26953125" style="47" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="47"/>
+    <col min="4" max="16384" width="9" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="39" customHeight="1" r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="108" t="s">
         <v>870</v>
       </c>
@@ -5315,7 +5383,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>30</v>
       </c>
@@ -5326,7 +5394,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="32.9" customHeight="1" r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="89" t="s">
         <v>31</v>
       </c>
@@ -5337,7 +5405,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="40.5" customHeight="1" r="5" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="91" t="s">
         <v>32</v>
       </c>
@@ -5348,12 +5416,12 @@
         <v>876</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="22.5" customHeight="1" r="6" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56"/>
       <c r="B6" s="94"/>
       <c r="C6" s="95"/>
     </row>
-    <row r="7" spans="1:3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="39" customHeight="1" r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="108" t="s">
         <v>877</v>
       </c>
@@ -5371,7 +5439,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>30</v>
       </c>
@@ -5382,7 +5450,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="34.5" customHeight="1" r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="89" t="s">
         <v>31</v>
       </c>
@@ -5393,7 +5461,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="219" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="219" customHeight="1" r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="89" t="s">
         <v>32</v>
       </c>
@@ -5404,7 +5472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="68.9" customHeight="1" r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
         <v>33</v>
       </c>
@@ -5415,7 +5483,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="216.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="216.4" customHeight="1" r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="89" t="s">
         <v>158</v>
       </c>
@@ -5426,7 +5494,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="139.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="139.15" customHeight="1" r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>160</v>
       </c>
@@ -5437,7 +5505,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="44.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="44.9" customHeight="1" r="15" spans="1:3" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="89" t="s">
         <v>162</v>
       </c>
@@ -5470,26 +5538,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.453125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
     <col min="2" max="2" width="67.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="1"/>
-    <col min="4" max="4" width="9.453125" style="6"/>
-    <col min="5" max="16384" width="9.453125" style="1"/>
+    <col min="3" max="3" width="9.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="19" r="1" spans="1:4" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
@@ -5507,82 +5574,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>44</v>
+      <c r="A4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>46</v>
+      <c r="A5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>20</v>
+      <c r="A6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>0</v>
+      <c r="A7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="A8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+    <row r="9">
+      <c r="A9" s="117" t="s">
+        <v>900</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row ht="15" r="10" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5607,24 +5658,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection pane="topLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.453125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="44.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="38.1796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.453125" style="1"/>
+    <col min="6" max="16384" width="9.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="44.5" customHeight="1" r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="111" t="s">
         <v>152</v>
       </c>
@@ -5632,7 +5682,7 @@
       <c r="C1" s="111"/>
       <c r="D1" s="111"/>
     </row>
-    <row r="2" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
+    <row ht="18.5" r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -5761,7 +5811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="44.5" customHeight="1" r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="111" t="s">
         <v>152</v>
       </c>
@@ -5787,26 +5837,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScalePageLayoutView="90">
+      <selection pane="topLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.453125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="43.81640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="22.26953125" style="5" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
     <col min="4" max="4" width="73.81640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.453125" style="5"/>
+    <col min="5" max="16384" width="9.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="44.5" customHeight="1" r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="111" t="s">
         <v>152</v>
       </c>
@@ -5814,7 +5863,7 @@
       <c r="C1" s="111"/>
       <c r="D1" s="111"/>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row ht="18.5" r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
@@ -5828,7 +5877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>139</v>
       </c>
@@ -5856,7 +5905,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>140</v>
       </c>
@@ -5870,7 +5919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>140</v>
       </c>
@@ -5884,7 +5933,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>140</v>
       </c>
@@ -5898,7 +5947,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>141</v>
       </c>
@@ -5912,7 +5961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>141</v>
       </c>
@@ -5926,7 +5975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>141</v>
       </c>
@@ -5940,7 +5989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>141</v>
       </c>
@@ -5954,7 +6003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>141</v>
       </c>
@@ -5968,7 +6017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>141</v>
       </c>
@@ -5982,7 +6031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>141</v>
       </c>
@@ -6010,7 +6059,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>143</v>
       </c>
@@ -6024,7 +6073,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>144</v>
       </c>
@@ -6038,7 +6087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>144</v>
       </c>
@@ -6052,7 +6101,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>144</v>
       </c>
@@ -6066,7 +6115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>145</v>
       </c>
@@ -6080,7 +6129,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>146</v>
       </c>
@@ -6094,7 +6143,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>146</v>
       </c>
@@ -6108,7 +6157,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>146</v>
       </c>
@@ -6122,7 +6171,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>147</v>
       </c>
@@ -6136,7 +6185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>147</v>
       </c>
@@ -6150,7 +6199,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>147</v>
       </c>
@@ -6164,7 +6213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
         <v>148</v>
       </c>
@@ -6178,7 +6227,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="43" t="s">
         <v>148</v>
       </c>
@@ -6192,7 +6241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="43" t="s">
         <v>148</v>
       </c>
@@ -6206,7 +6255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
         <v>148</v>
       </c>
@@ -6220,7 +6269,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="43" t="s">
         <v>148</v>
       </c>
@@ -6234,7 +6283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="44.5" customHeight="1" r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="111" t="s">
         <v>152</v>
       </c>
@@ -6265,31 +6314,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomScaleNormal="80" zoomScalePageLayoutView="90" zoomScaleSheetLayoutView="100">
+      <selection pane="topLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
+    <col min="1" max="1" width="9" style="55" customWidth="1"/>
     <col min="2" max="2" width="87.453125" customWidth="1"/>
     <col min="3" max="3" width="20.453125" style="56" customWidth="1"/>
     <col min="4" max="4" width="76.54296875" style="10" customWidth="1"/>
     <col min="5" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="14.25" customHeight="1" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="112"/>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row ht="30" customHeight="1" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
@@ -6313,7 +6361,7 @@
       </c>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="41.25" customHeight="1" r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>171</v>
       </c>
@@ -6325,7 +6373,7 @@
       </c>
       <c r="D4" s="50"/>
     </row>
-    <row r="5" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="36.75" customHeight="1" r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
         <v>173</v>
       </c>
@@ -6336,7 +6384,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="27" customHeight="1" r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
         <v>176</v>
       </c>
@@ -6347,7 +6395,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="55.5" customHeight="1" r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="113" t="s">
         <v>178</v>
       </c>
@@ -6372,20 +6420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G334"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="80">
       <pane xSplit="5" ySplit="2" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="44.81640625" style="72" customWidth="1"/>
     <col min="2" max="2" width="49.453125" style="73" customWidth="1"/>
@@ -6396,7 +6443,7 @@
     <col min="7" max="7" width="31.81640625" style="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="44.5" customHeight="1" r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="114" t="s">
         <v>152</v>
       </c>
@@ -6407,7 +6454,7 @@
       <c r="F1" s="114"/>
       <c r="G1" s="114"/>
     </row>
-    <row r="2" spans="1:7" s="56" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="99" customHeight="1" r="2" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>179</v>
       </c>
@@ -6430,7 +6477,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="75" customHeight="1" r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
         <v>182</v>
       </c>
@@ -6453,7 +6500,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>182</v>
       </c>
@@ -6476,7 +6523,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>182</v>
       </c>
@@ -6499,7 +6546,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>182</v>
       </c>
@@ -6522,7 +6569,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>182</v>
       </c>
@@ -6545,7 +6592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>182</v>
       </c>
@@ -6568,7 +6615,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>182</v>
       </c>
@@ -6591,7 +6638,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>182</v>
       </c>
@@ -6614,7 +6661,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="48" customHeight="1" r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
         <v>182</v>
       </c>
@@ -6637,7 +6684,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
@@ -6660,7 +6707,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>182</v>
       </c>
@@ -6683,7 +6730,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
         <v>182</v>
       </c>
@@ -6706,7 +6753,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>182</v>
       </c>
@@ -6729,7 +6776,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>182</v>
       </c>
@@ -6752,7 +6799,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="57.65" customHeight="1" r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>182</v>
       </c>
@@ -6775,7 +6822,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>182</v>
       </c>
@@ -6798,7 +6845,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>182</v>
       </c>
@@ -6821,7 +6868,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>182</v>
       </c>
@@ -6844,7 +6891,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="63" t="s">
         <v>140</v>
       </c>
@@ -6867,7 +6914,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="63" t="s">
         <v>140</v>
       </c>
@@ -6890,7 +6937,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="63" t="s">
         <v>140</v>
       </c>
@@ -6913,7 +6960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="63" t="s">
         <v>140</v>
       </c>
@@ -6936,7 +6983,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="63" t="s">
         <v>140</v>
       </c>
@@ -6959,7 +7006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="63" t="s">
         <v>140</v>
       </c>
@@ -6982,7 +7029,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="63" t="s">
         <v>140</v>
       </c>
@@ -7005,7 +7052,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="152.25" customHeight="1" r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="63" t="s">
         <v>140</v>
       </c>
@@ -7028,7 +7075,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="63" t="s">
         <v>140</v>
       </c>
@@ -7051,7 +7098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="63" t="s">
         <v>140</v>
       </c>
@@ -7074,7 +7121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="63" t="s">
         <v>140</v>
       </c>
@@ -7097,7 +7144,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="63" t="s">
         <v>140</v>
       </c>
@@ -7120,7 +7167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="63" t="s">
         <v>140</v>
       </c>
@@ -7143,7 +7190,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="63" t="s">
         <v>140</v>
       </c>
@@ -7166,7 +7213,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="63" t="s">
         <v>140</v>
       </c>
@@ -7189,7 +7236,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="63" t="s">
         <v>140</v>
       </c>
@@ -7212,7 +7259,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="63" t="s">
         <v>140</v>
       </c>
@@ -7235,7 +7282,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="63" t="s">
         <v>140</v>
       </c>
@@ -7258,7 +7305,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="63" t="s">
         <v>140</v>
       </c>
@@ -7281,7 +7328,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="63" t="s">
         <v>140</v>
       </c>
@@ -7304,7 +7351,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="63" t="s">
         <v>140</v>
       </c>
@@ -7327,7 +7374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="63" t="s">
         <v>140</v>
       </c>
@@ -7350,7 +7397,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="63" t="s">
         <v>140</v>
       </c>
@@ -7373,7 +7420,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="63" t="s">
         <v>140</v>
       </c>
@@ -7396,7 +7443,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="63" t="s">
         <v>140</v>
       </c>
@@ -7419,7 +7466,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="63" t="s">
         <v>140</v>
       </c>
@@ -7442,7 +7489,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="63" t="s">
         <v>140</v>
       </c>
@@ -7465,7 +7512,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="63" t="s">
         <v>140</v>
       </c>
@@ -7488,7 +7535,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="63" t="s">
         <v>140</v>
       </c>
@@ -7511,7 +7558,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="63" t="s">
         <v>140</v>
       </c>
@@ -7534,7 +7581,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="63" t="s">
         <v>140</v>
       </c>
@@ -7557,7 +7604,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="63" t="s">
         <v>140</v>
       </c>
@@ -7580,7 +7627,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="63" t="s">
         <v>140</v>
       </c>
@@ -7603,7 +7650,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="63" t="s">
         <v>140</v>
       </c>
@@ -7626,7 +7673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="63" t="s">
         <v>140</v>
       </c>
@@ -7649,7 +7696,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="63" t="s">
         <v>140</v>
       </c>
@@ -7672,7 +7719,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="63" t="s">
         <v>141</v>
       </c>
@@ -7693,7 +7740,7 @@
       </c>
       <c r="G57" s="61"/>
     </row>
-    <row r="58" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="63" t="s">
         <v>141</v>
       </c>
@@ -7714,7 +7761,7 @@
       </c>
       <c r="G58" s="61"/>
     </row>
-    <row r="59" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="63" t="s">
         <v>141</v>
       </c>
@@ -7735,7 +7782,7 @@
       </c>
       <c r="G59" s="61"/>
     </row>
-    <row r="60" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="63" t="s">
         <v>141</v>
       </c>
@@ -7756,7 +7803,7 @@
       </c>
       <c r="G60" s="61"/>
     </row>
-    <row r="61" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="63" t="s">
         <v>141</v>
       </c>
@@ -7777,7 +7824,7 @@
       </c>
       <c r="G61" s="61"/>
     </row>
-    <row r="62" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="63" t="s">
         <v>141</v>
       </c>
@@ -7798,7 +7845,7 @@
       </c>
       <c r="G62" s="61"/>
     </row>
-    <row r="63" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="63" t="s">
         <v>141</v>
       </c>
@@ -7819,7 +7866,7 @@
       </c>
       <c r="G63" s="61"/>
     </row>
-    <row r="64" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="63" t="s">
         <v>141</v>
       </c>
@@ -7840,7 +7887,7 @@
       </c>
       <c r="G64" s="61"/>
     </row>
-    <row r="65" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="63" t="s">
         <v>141</v>
       </c>
@@ -7861,7 +7908,7 @@
       </c>
       <c r="G65" s="61"/>
     </row>
-    <row r="66" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="63" t="s">
         <v>141</v>
       </c>
@@ -7882,7 +7929,7 @@
       </c>
       <c r="G66" s="61"/>
     </row>
-    <row r="67" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="63" t="s">
         <v>141</v>
       </c>
@@ -7903,7 +7950,7 @@
       </c>
       <c r="G67" s="61"/>
     </row>
-    <row r="68" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="63" t="s">
         <v>141</v>
       </c>
@@ -7924,7 +7971,7 @@
       </c>
       <c r="G68" s="61"/>
     </row>
-    <row r="69" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="63" t="s">
         <v>141</v>
       </c>
@@ -7945,7 +7992,7 @@
       </c>
       <c r="G69" s="61"/>
     </row>
-    <row r="70" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="63" t="s">
         <v>141</v>
       </c>
@@ -7966,7 +8013,7 @@
       </c>
       <c r="G70" s="61"/>
     </row>
-    <row r="71" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="63" t="s">
         <v>141</v>
       </c>
@@ -7987,7 +8034,7 @@
       </c>
       <c r="G71" s="61"/>
     </row>
-    <row r="72" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="63" t="s">
         <v>141</v>
       </c>
@@ -8008,7 +8055,7 @@
       </c>
       <c r="G72" s="61"/>
     </row>
-    <row r="73" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="63" t="s">
         <v>141</v>
       </c>
@@ -8029,7 +8076,7 @@
       </c>
       <c r="G73" s="61"/>
     </row>
-    <row r="74" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="63" t="s">
         <v>141</v>
       </c>
@@ -8050,7 +8097,7 @@
       </c>
       <c r="G74" s="61"/>
     </row>
-    <row r="75" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="63" t="s">
         <v>141</v>
       </c>
@@ -8071,7 +8118,7 @@
       </c>
       <c r="G75" s="61"/>
     </row>
-    <row r="76" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="63" t="s">
         <v>141</v>
       </c>
@@ -8092,7 +8139,7 @@
       </c>
       <c r="G76" s="61"/>
     </row>
-    <row r="77" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="63" t="s">
         <v>141</v>
       </c>
@@ -8113,7 +8160,7 @@
       </c>
       <c r="G77" s="61"/>
     </row>
-    <row r="78" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="63" t="s">
         <v>141</v>
       </c>
@@ -8134,7 +8181,7 @@
       </c>
       <c r="G78" s="61"/>
     </row>
-    <row r="79" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="63" t="s">
         <v>141</v>
       </c>
@@ -8155,7 +8202,7 @@
       </c>
       <c r="G79" s="61"/>
     </row>
-    <row r="80" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="63" t="s">
         <v>141</v>
       </c>
@@ -8176,7 +8223,7 @@
       </c>
       <c r="G80" s="61"/>
     </row>
-    <row r="81" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="63" t="s">
         <v>141</v>
       </c>
@@ -8197,7 +8244,7 @@
       </c>
       <c r="G81" s="61"/>
     </row>
-    <row r="82" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="63" t="s">
         <v>141</v>
       </c>
@@ -8218,7 +8265,7 @@
       </c>
       <c r="G82" s="61"/>
     </row>
-    <row r="83" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="63" t="s">
         <v>141</v>
       </c>
@@ -8239,7 +8286,7 @@
       </c>
       <c r="G83" s="61"/>
     </row>
-    <row r="84" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="63" t="s">
         <v>141</v>
       </c>
@@ -8260,7 +8307,7 @@
       </c>
       <c r="G84" s="61"/>
     </row>
-    <row r="85" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="63" t="s">
         <v>141</v>
       </c>
@@ -8281,7 +8328,7 @@
       </c>
       <c r="G85" s="61"/>
     </row>
-    <row r="86" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="63" t="s">
         <v>141</v>
       </c>
@@ -8302,7 +8349,7 @@
       </c>
       <c r="G86" s="61"/>
     </row>
-    <row r="87" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="63" t="s">
         <v>141</v>
       </c>
@@ -8323,7 +8370,7 @@
       </c>
       <c r="G87" s="61"/>
     </row>
-    <row r="88" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="63" t="s">
         <v>141</v>
       </c>
@@ -8344,7 +8391,7 @@
       </c>
       <c r="G88" s="61"/>
     </row>
-    <row r="89" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="63" t="s">
         <v>141</v>
       </c>
@@ -8365,7 +8412,7 @@
       </c>
       <c r="G89" s="61"/>
     </row>
-    <row r="90" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="63" t="s">
         <v>141</v>
       </c>
@@ -8386,7 +8433,7 @@
       </c>
       <c r="G90" s="61"/>
     </row>
-    <row r="91" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="63" t="s">
         <v>141</v>
       </c>
@@ -8407,7 +8454,7 @@
       </c>
       <c r="G91" s="61"/>
     </row>
-    <row r="92" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="63" t="s">
         <v>141</v>
       </c>
@@ -8430,7 +8477,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="63" t="s">
         <v>141</v>
       </c>
@@ -8453,7 +8500,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="63" t="s">
         <v>141</v>
       </c>
@@ -8476,7 +8523,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="63" t="s">
         <v>141</v>
       </c>
@@ -8499,7 +8546,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="63" t="s">
         <v>141</v>
       </c>
@@ -8522,7 +8569,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="63" t="s">
         <v>141</v>
       </c>
@@ -8545,7 +8592,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="63" t="s">
         <v>141</v>
       </c>
@@ -8566,7 +8613,7 @@
       </c>
       <c r="G98" s="61"/>
     </row>
-    <row r="99" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row ht="130.5" r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="63" t="s">
         <v>141</v>
       </c>
@@ -8587,7 +8634,7 @@
       </c>
       <c r="G99" s="61"/>
     </row>
-    <row r="100" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="63" t="s">
         <v>141</v>
       </c>
@@ -8608,7 +8655,7 @@
       </c>
       <c r="G100" s="61"/>
     </row>
-    <row r="101" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="63" t="s">
         <v>141</v>
       </c>
@@ -8631,7 +8678,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="63" t="s">
         <v>141</v>
       </c>
@@ -8654,7 +8701,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>141</v>
       </c>
@@ -8677,7 +8724,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="63" t="s">
         <v>141</v>
       </c>
@@ -8700,7 +8747,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="63" t="s">
         <v>141</v>
       </c>
@@ -8723,7 +8770,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="63" t="s">
         <v>141</v>
       </c>
@@ -8746,7 +8793,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>141</v>
       </c>
@@ -8769,7 +8816,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="63" t="s">
         <v>141</v>
       </c>
@@ -8792,7 +8839,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="63" t="s">
         <v>141</v>
       </c>
@@ -8815,7 +8862,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="63" t="s">
         <v>141</v>
       </c>
@@ -8838,7 +8885,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="63" t="s">
         <v>141</v>
       </c>
@@ -8861,7 +8908,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="63" t="s">
         <v>141</v>
       </c>
@@ -8884,7 +8931,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="63" t="s">
         <v>141</v>
       </c>
@@ -8907,7 +8954,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="63" t="s">
         <v>141</v>
       </c>
@@ -8930,7 +8977,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="63" t="s">
         <v>141</v>
       </c>
@@ -8953,7 +9000,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="63" t="s">
         <v>141</v>
       </c>
@@ -8976,7 +9023,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="63" t="s">
         <v>141</v>
       </c>
@@ -8999,7 +9046,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="63" t="s">
         <v>141</v>
       </c>
@@ -9022,7 +9069,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="63" t="s">
         <v>141</v>
       </c>
@@ -9045,7 +9092,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="63" t="s">
         <v>141</v>
       </c>
@@ -9068,7 +9115,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="63" t="s">
         <v>142</v>
       </c>
@@ -9089,7 +9136,7 @@
       </c>
       <c r="G121" s="61"/>
     </row>
-    <row r="122" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="63" t="s">
         <v>142</v>
       </c>
@@ -9110,7 +9157,7 @@
       </c>
       <c r="G122" s="61"/>
     </row>
-    <row r="123" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="63" t="s">
         <v>142</v>
       </c>
@@ -9131,7 +9178,7 @@
       </c>
       <c r="G123" s="61"/>
     </row>
-    <row r="124" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="63" t="s">
         <v>142</v>
       </c>
@@ -9152,7 +9199,7 @@
       </c>
       <c r="G124" s="61"/>
     </row>
-    <row r="125" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="63" t="s">
         <v>142</v>
       </c>
@@ -9173,7 +9220,7 @@
       </c>
       <c r="G125" s="61"/>
     </row>
-    <row r="126" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="63" t="s">
         <v>142</v>
       </c>
@@ -9194,7 +9241,7 @@
       </c>
       <c r="G126" s="61"/>
     </row>
-    <row r="127" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="63" t="s">
         <v>142</v>
       </c>
@@ -9215,7 +9262,7 @@
       </c>
       <c r="G127" s="61"/>
     </row>
-    <row r="128" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="63" t="s">
         <v>142</v>
       </c>
@@ -9236,7 +9283,7 @@
       </c>
       <c r="G128" s="61"/>
     </row>
-    <row r="129" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="63" t="s">
         <v>142</v>
       </c>
@@ -9257,7 +9304,7 @@
       </c>
       <c r="G129" s="61"/>
     </row>
-    <row r="130" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="63" t="s">
         <v>142</v>
       </c>
@@ -9278,7 +9325,7 @@
       </c>
       <c r="G130" s="61"/>
     </row>
-    <row r="131" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="131" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="63" t="s">
         <v>142</v>
       </c>
@@ -9301,7 +9348,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="63" t="s">
         <v>143</v>
       </c>
@@ -9324,7 +9371,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="63" t="s">
         <v>143</v>
       </c>
@@ -9347,7 +9394,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="63" t="s">
         <v>143</v>
       </c>
@@ -9370,7 +9417,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="63" t="s">
         <v>143</v>
       </c>
@@ -9393,7 +9440,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="63" t="s">
         <v>144</v>
       </c>
@@ -9416,7 +9463,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="63" t="s">
         <v>144</v>
       </c>
@@ -9439,7 +9486,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="63" t="s">
         <v>144</v>
       </c>
@@ -9462,7 +9509,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="63" t="s">
         <v>144</v>
       </c>
@@ -9485,7 +9532,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="140" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="63" t="s">
         <v>144</v>
       </c>
@@ -9508,7 +9555,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="141" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="63" t="s">
         <v>144</v>
       </c>
@@ -9531,7 +9578,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="142" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="65" t="s">
         <v>144</v>
       </c>
@@ -9554,7 +9601,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="143" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="65" t="s">
         <v>144</v>
       </c>
@@ -9577,7 +9624,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="65" t="s">
         <v>144</v>
       </c>
@@ -9600,7 +9647,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="65" t="s">
         <v>145</v>
       </c>
@@ -9621,7 +9668,7 @@
       </c>
       <c r="G145" s="61"/>
     </row>
-    <row r="146" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="65" t="s">
         <v>145</v>
       </c>
@@ -9642,7 +9689,7 @@
       </c>
       <c r="G146" s="61"/>
     </row>
-    <row r="147" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="65" t="s">
         <v>145</v>
       </c>
@@ -9663,7 +9710,7 @@
       </c>
       <c r="G147" s="61"/>
     </row>
-    <row r="148" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="65" t="s">
         <v>145</v>
       </c>
@@ -9684,7 +9731,7 @@
       </c>
       <c r="G148" s="61"/>
     </row>
-    <row r="149" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="65" t="s">
         <v>145</v>
       </c>
@@ -9705,7 +9752,7 @@
       </c>
       <c r="G149" s="61"/>
     </row>
-    <row r="150" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="65" t="s">
         <v>145</v>
       </c>
@@ -9726,7 +9773,7 @@
       </c>
       <c r="G150" s="61"/>
     </row>
-    <row r="151" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="65" t="s">
         <v>145</v>
       </c>
@@ -9747,7 +9794,7 @@
       </c>
       <c r="G151" s="61"/>
     </row>
-    <row r="152" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="65" t="s">
         <v>145</v>
       </c>
@@ -9768,7 +9815,7 @@
       </c>
       <c r="G152" s="61"/>
     </row>
-    <row r="153" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="65" t="s">
         <v>145</v>
       </c>
@@ -9789,7 +9836,7 @@
       </c>
       <c r="G153" s="61"/>
     </row>
-    <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="65" t="s">
         <v>145</v>
       </c>
@@ -9810,7 +9857,7 @@
       </c>
       <c r="G154" s="61"/>
     </row>
-    <row r="155" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="63" t="s">
         <v>145</v>
       </c>
@@ -9831,7 +9878,7 @@
       </c>
       <c r="G155" s="61"/>
     </row>
-    <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="63" t="s">
         <v>145</v>
       </c>
@@ -9852,7 +9899,7 @@
       </c>
       <c r="G156" s="61"/>
     </row>
-    <row r="157" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="63" t="s">
         <v>145</v>
       </c>
@@ -9873,7 +9920,7 @@
       </c>
       <c r="G157" s="61"/>
     </row>
-    <row r="158" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="65" t="s">
         <v>145</v>
       </c>
@@ -9894,7 +9941,7 @@
       </c>
       <c r="G158" s="61"/>
     </row>
-    <row r="159" spans="1:7" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="159" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="65" t="s">
         <v>146</v>
       </c>
@@ -9915,7 +9962,7 @@
       </c>
       <c r="G159" s="61"/>
     </row>
-    <row r="160" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="160" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="65" t="s">
         <v>146</v>
       </c>
@@ -9936,7 +9983,7 @@
       </c>
       <c r="G160" s="61"/>
     </row>
-    <row r="161" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="161" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="65" t="s">
         <v>146</v>
       </c>
@@ -9957,7 +10004,7 @@
       </c>
       <c r="G161" s="61"/>
     </row>
-    <row r="162" spans="1:7" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="162" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="65" t="s">
         <v>146</v>
       </c>
@@ -9978,7 +10025,7 @@
       </c>
       <c r="G162" s="61"/>
     </row>
-    <row r="163" spans="1:7" s="64" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="163" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="65" t="s">
         <v>146</v>
       </c>
@@ -9999,7 +10046,7 @@
       </c>
       <c r="G163" s="61"/>
     </row>
-    <row r="164" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="164" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="65" t="s">
         <v>146</v>
       </c>
@@ -10020,7 +10067,7 @@
       </c>
       <c r="G164" s="61"/>
     </row>
-    <row r="165" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="165" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="65" t="s">
         <v>146</v>
       </c>
@@ -10041,7 +10088,7 @@
       </c>
       <c r="G165" s="61"/>
     </row>
-    <row r="166" spans="1:7" s="64" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="166" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="65" t="s">
         <v>146</v>
       </c>
@@ -10062,7 +10109,7 @@
       </c>
       <c r="G166" s="61"/>
     </row>
-    <row r="167" spans="1:7" s="64" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="167" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="65" t="s">
         <v>146</v>
       </c>
@@ -10083,7 +10130,7 @@
       </c>
       <c r="G167" s="61"/>
     </row>
-    <row r="168" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="168" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="65" t="s">
         <v>147</v>
       </c>
@@ -10104,7 +10151,7 @@
       </c>
       <c r="G168" s="61"/>
     </row>
-    <row r="169" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="169" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="65" t="s">
         <v>147</v>
       </c>
@@ -10125,7 +10172,7 @@
       </c>
       <c r="G169" s="61"/>
     </row>
-    <row r="170" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="65" t="s">
         <v>147</v>
       </c>
@@ -10146,7 +10193,7 @@
       </c>
       <c r="G170" s="61"/>
     </row>
-    <row r="171" spans="1:7" s="64" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="171" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="65" t="s">
         <v>147</v>
       </c>
@@ -10167,7 +10214,7 @@
       </c>
       <c r="G171" s="61"/>
     </row>
-    <row r="172" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="65" t="s">
         <v>147</v>
       </c>
@@ -10188,7 +10235,7 @@
       </c>
       <c r="G172" s="61"/>
     </row>
-    <row r="173" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="65" t="s">
         <v>147</v>
       </c>
@@ -10209,7 +10256,7 @@
       </c>
       <c r="G173" s="61"/>
     </row>
-    <row r="174" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="65" t="s">
         <v>147</v>
       </c>
@@ -10230,7 +10277,7 @@
       </c>
       <c r="G174" s="61"/>
     </row>
-    <row r="175" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="65" t="s">
         <v>147</v>
       </c>
@@ -10251,7 +10298,7 @@
       </c>
       <c r="G175" s="61"/>
     </row>
-    <row r="176" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="65" t="s">
         <v>147</v>
       </c>
@@ -10272,7 +10319,7 @@
       </c>
       <c r="G176" s="61"/>
     </row>
-    <row r="177" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="65" t="s">
         <v>147</v>
       </c>
@@ -10293,7 +10340,7 @@
       </c>
       <c r="G177" s="61"/>
     </row>
-    <row r="178" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="65" t="s">
         <v>147</v>
       </c>
@@ -10314,7 +10361,7 @@
       </c>
       <c r="G178" s="61"/>
     </row>
-    <row r="179" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="65" t="s">
         <v>147</v>
       </c>
@@ -10335,7 +10382,7 @@
       </c>
       <c r="G179" s="61"/>
     </row>
-    <row r="180" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="65" t="s">
         <v>147</v>
       </c>
@@ -10356,7 +10403,7 @@
       </c>
       <c r="G180" s="61"/>
     </row>
-    <row r="181" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="65" t="s">
         <v>147</v>
       </c>
@@ -10377,7 +10424,7 @@
       </c>
       <c r="G181" s="61"/>
     </row>
-    <row r="182" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="65" t="s">
         <v>147</v>
       </c>
@@ -10398,7 +10445,7 @@
       </c>
       <c r="G182" s="61"/>
     </row>
-    <row r="183" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row ht="116" r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="65" t="s">
         <v>147</v>
       </c>
@@ -10419,7 +10466,7 @@
       </c>
       <c r="G183" s="61"/>
     </row>
-    <row r="184" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="65" t="s">
         <v>147</v>
       </c>
@@ -10440,7 +10487,7 @@
       </c>
       <c r="G184" s="61"/>
     </row>
-    <row r="185" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="65" t="s">
         <v>147</v>
       </c>
@@ -10461,7 +10508,7 @@
       </c>
       <c r="G185" s="61"/>
     </row>
-    <row r="186" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="65" t="s">
         <v>147</v>
       </c>
@@ -10482,7 +10529,7 @@
       </c>
       <c r="G186" s="61"/>
     </row>
-    <row r="187" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="65" t="s">
         <v>147</v>
       </c>
@@ -10503,7 +10550,7 @@
       </c>
       <c r="G187" s="61"/>
     </row>
-    <row r="188" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="65" t="s">
         <v>147</v>
       </c>
@@ -10524,7 +10571,7 @@
       </c>
       <c r="G188" s="61"/>
     </row>
-    <row r="189" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="65" t="s">
         <v>147</v>
       </c>
@@ -10545,7 +10592,7 @@
       </c>
       <c r="G189" s="61"/>
     </row>
-    <row r="190" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="65" t="s">
         <v>147</v>
       </c>
@@ -10566,7 +10613,7 @@
       </c>
       <c r="G190" s="61"/>
     </row>
-    <row r="191" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="65" t="s">
         <v>147</v>
       </c>
@@ -10587,7 +10634,7 @@
       </c>
       <c r="G191" s="61"/>
     </row>
-    <row r="192" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="65" t="s">
         <v>147</v>
       </c>
@@ -10608,7 +10655,7 @@
       </c>
       <c r="G192" s="61"/>
     </row>
-    <row r="193" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="65" t="s">
         <v>147</v>
       </c>
@@ -10629,7 +10676,7 @@
       </c>
       <c r="G193" s="61"/>
     </row>
-    <row r="194" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="65" t="s">
         <v>147</v>
       </c>
@@ -10650,7 +10697,7 @@
       </c>
       <c r="G194" s="61"/>
     </row>
-    <row r="195" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="65" t="s">
         <v>147</v>
       </c>
@@ -10671,7 +10718,7 @@
       </c>
       <c r="G195" s="61"/>
     </row>
-    <row r="196" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="65" t="s">
         <v>147</v>
       </c>
@@ -10692,7 +10739,7 @@
       </c>
       <c r="G196" s="61"/>
     </row>
-    <row r="197" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="65" t="s">
         <v>147</v>
       </c>
@@ -10713,7 +10760,7 @@
       </c>
       <c r="G197" s="61"/>
     </row>
-    <row r="198" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="65" t="s">
         <v>147</v>
       </c>
@@ -10734,7 +10781,7 @@
       </c>
       <c r="G198" s="61"/>
     </row>
-    <row r="199" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="65" t="s">
         <v>147</v>
       </c>
@@ -10755,7 +10802,7 @@
       </c>
       <c r="G199" s="61"/>
     </row>
-    <row r="200" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="65" t="s">
         <v>147</v>
       </c>
@@ -10776,7 +10823,7 @@
       </c>
       <c r="G200" s="61"/>
     </row>
-    <row r="201" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="65" t="s">
         <v>147</v>
       </c>
@@ -10797,7 +10844,7 @@
       </c>
       <c r="G201" s="61"/>
     </row>
-    <row r="202" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="65" t="s">
         <v>147</v>
       </c>
@@ -10818,7 +10865,7 @@
       </c>
       <c r="G202" s="61"/>
     </row>
-    <row r="203" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="65" t="s">
         <v>147</v>
       </c>
@@ -10839,7 +10886,7 @@
       </c>
       <c r="G203" s="61"/>
     </row>
-    <row r="204" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="65" t="s">
         <v>147</v>
       </c>
@@ -10860,7 +10907,7 @@
       </c>
       <c r="G204" s="61"/>
     </row>
-    <row r="205" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="65" t="s">
         <v>147</v>
       </c>
@@ -10881,7 +10928,7 @@
       </c>
       <c r="G205" s="61"/>
     </row>
-    <row r="206" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="65" t="s">
         <v>147</v>
       </c>
@@ -10902,7 +10949,7 @@
       </c>
       <c r="G206" s="61"/>
     </row>
-    <row r="207" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="65" t="s">
         <v>147</v>
       </c>
@@ -10923,7 +10970,7 @@
       </c>
       <c r="G207" s="61"/>
     </row>
-    <row r="208" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="65" t="s">
         <v>147</v>
       </c>
@@ -10944,7 +10991,7 @@
       </c>
       <c r="G208" s="61"/>
     </row>
-    <row r="209" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="65" t="s">
         <v>147</v>
       </c>
@@ -10965,7 +11012,7 @@
       </c>
       <c r="G209" s="61"/>
     </row>
-    <row r="210" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="65" t="s">
         <v>147</v>
       </c>
@@ -10986,7 +11033,7 @@
       </c>
       <c r="G210" s="61"/>
     </row>
-    <row r="211" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="65" t="s">
         <v>147</v>
       </c>
@@ -11007,7 +11054,7 @@
       </c>
       <c r="G211" s="61"/>
     </row>
-    <row r="212" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="65" t="s">
         <v>147</v>
       </c>
@@ -11028,7 +11075,7 @@
       </c>
       <c r="G212" s="61"/>
     </row>
-    <row r="213" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="65" t="s">
         <v>147</v>
       </c>
@@ -11049,7 +11096,7 @@
       </c>
       <c r="G213" s="61"/>
     </row>
-    <row r="214" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="65" t="s">
         <v>147</v>
       </c>
@@ -11070,7 +11117,7 @@
       </c>
       <c r="G214" s="61"/>
     </row>
-    <row r="215" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="65" t="s">
         <v>147</v>
       </c>
@@ -11091,7 +11138,7 @@
       </c>
       <c r="G215" s="61"/>
     </row>
-    <row r="216" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="65" t="s">
         <v>147</v>
       </c>
@@ -11112,7 +11159,7 @@
       </c>
       <c r="G216" s="61"/>
     </row>
-    <row r="217" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="65" t="s">
         <v>147</v>
       </c>
@@ -11133,7 +11180,7 @@
       </c>
       <c r="G217" s="61"/>
     </row>
-    <row r="218" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="65" t="s">
         <v>147</v>
       </c>
@@ -11154,7 +11201,7 @@
       </c>
       <c r="G218" s="61"/>
     </row>
-    <row r="219" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="65" t="s">
         <v>147</v>
       </c>
@@ -11175,7 +11222,7 @@
       </c>
       <c r="G219" s="61"/>
     </row>
-    <row r="220" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="65" t="s">
         <v>147</v>
       </c>
@@ -11196,7 +11243,7 @@
       </c>
       <c r="G220" s="61"/>
     </row>
-    <row r="221" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="65" t="s">
         <v>147</v>
       </c>
@@ -11217,7 +11264,7 @@
       </c>
       <c r="G221" s="61"/>
     </row>
-    <row r="222" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="65" t="s">
         <v>147</v>
       </c>
@@ -11238,7 +11285,7 @@
       </c>
       <c r="G222" s="61"/>
     </row>
-    <row r="223" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="65" t="s">
         <v>147</v>
       </c>
@@ -11259,7 +11306,7 @@
       </c>
       <c r="G223" s="61"/>
     </row>
-    <row r="224" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="66" t="s">
         <v>148</v>
       </c>
@@ -11280,7 +11327,7 @@
       </c>
       <c r="G224" s="61"/>
     </row>
-    <row r="225" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="66" t="s">
         <v>148</v>
       </c>
@@ -11301,7 +11348,7 @@
       </c>
       <c r="G225" s="61"/>
     </row>
-    <row r="226" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="66" t="s">
         <v>148</v>
       </c>
@@ -11322,7 +11369,7 @@
       </c>
       <c r="G226" s="61"/>
     </row>
-    <row r="227" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="66" t="s">
         <v>148</v>
       </c>
@@ -11343,7 +11390,7 @@
       </c>
       <c r="G227" s="61"/>
     </row>
-    <row r="228" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="66" t="s">
         <v>148</v>
       </c>
@@ -11364,7 +11411,7 @@
       </c>
       <c r="G228" s="61"/>
     </row>
-    <row r="229" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="66" t="s">
         <v>148</v>
       </c>
@@ -11385,7 +11432,7 @@
       </c>
       <c r="G229" s="61"/>
     </row>
-    <row r="230" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="66" t="s">
         <v>148</v>
       </c>
@@ -11406,7 +11453,7 @@
       </c>
       <c r="G230" s="61"/>
     </row>
-    <row r="231" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="66" t="s">
         <v>148</v>
       </c>
@@ -11427,7 +11474,7 @@
       </c>
       <c r="G231" s="61"/>
     </row>
-    <row r="232" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="66" t="s">
         <v>148</v>
       </c>
@@ -11448,7 +11495,7 @@
       </c>
       <c r="G232" s="61"/>
     </row>
-    <row r="233" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="66" t="s">
         <v>148</v>
       </c>
@@ -11469,7 +11516,7 @@
       </c>
       <c r="G233" s="61"/>
     </row>
-    <row r="234" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="66" t="s">
         <v>148</v>
       </c>
@@ -11490,7 +11537,7 @@
       </c>
       <c r="G234" s="61"/>
     </row>
-    <row r="235" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="66" t="s">
         <v>148</v>
       </c>
@@ -11511,7 +11558,7 @@
       </c>
       <c r="G235" s="61"/>
     </row>
-    <row r="236" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="66" t="s">
         <v>148</v>
       </c>
@@ -11532,7 +11579,7 @@
       </c>
       <c r="G236" s="61"/>
     </row>
-    <row r="237" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="66" t="s">
         <v>148</v>
       </c>
@@ -11553,7 +11600,7 @@
       </c>
       <c r="G237" s="61"/>
     </row>
-    <row r="238" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="66" t="s">
         <v>148</v>
       </c>
@@ -11574,7 +11621,7 @@
       </c>
       <c r="G238" s="61"/>
     </row>
-    <row r="239" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="66" t="s">
         <v>148</v>
       </c>
@@ -11595,7 +11642,7 @@
       </c>
       <c r="G239" s="61"/>
     </row>
-    <row r="240" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="66" t="s">
         <v>148</v>
       </c>
@@ -11616,7 +11663,7 @@
       </c>
       <c r="G240" s="61"/>
     </row>
-    <row r="241" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="66" t="s">
         <v>148</v>
       </c>
@@ -11637,7 +11684,7 @@
       </c>
       <c r="G241" s="61"/>
     </row>
-    <row r="242" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="66" t="s">
         <v>148</v>
       </c>
@@ -11658,7 +11705,7 @@
       </c>
       <c r="G242" s="61"/>
     </row>
-    <row r="243" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="66" t="s">
         <v>148</v>
       </c>
@@ -11679,7 +11726,7 @@
       </c>
       <c r="G243" s="61"/>
     </row>
-    <row r="244" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="66" t="s">
         <v>148</v>
       </c>
@@ -11700,7 +11747,7 @@
       </c>
       <c r="G244" s="61"/>
     </row>
-    <row r="245" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="66" t="s">
         <v>148</v>
       </c>
@@ -11721,7 +11768,7 @@
       </c>
       <c r="G245" s="61"/>
     </row>
-    <row r="246" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="66" t="s">
         <v>148</v>
       </c>
@@ -11742,7 +11789,7 @@
       </c>
       <c r="G246" s="61"/>
     </row>
-    <row r="247" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="66" t="s">
         <v>148</v>
       </c>
@@ -11763,7 +11810,7 @@
       </c>
       <c r="G247" s="61"/>
     </row>
-    <row r="248" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row ht="101.5" r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="66" t="s">
         <v>148</v>
       </c>
@@ -11784,7 +11831,7 @@
       </c>
       <c r="G248" s="61"/>
     </row>
-    <row r="249" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="66" t="s">
         <v>148</v>
       </c>
@@ -11805,7 +11852,7 @@
       </c>
       <c r="G249" s="61"/>
     </row>
-    <row r="250" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="66" t="s">
         <v>148</v>
       </c>
@@ -11826,7 +11873,7 @@
       </c>
       <c r="G250" s="61"/>
     </row>
-    <row r="251" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="66" t="s">
         <v>148</v>
       </c>
@@ -11847,7 +11894,7 @@
       </c>
       <c r="G251" s="61"/>
     </row>
-    <row r="252" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="66" t="s">
         <v>148</v>
       </c>
@@ -11868,7 +11915,7 @@
       </c>
       <c r="G252" s="61"/>
     </row>
-    <row r="253" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="66" t="s">
         <v>148</v>
       </c>
@@ -11889,7 +11936,7 @@
       </c>
       <c r="G253" s="61"/>
     </row>
-    <row r="254" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="66" t="s">
         <v>148</v>
       </c>
@@ -11910,7 +11957,7 @@
       </c>
       <c r="G254" s="61"/>
     </row>
-    <row r="255" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="66" t="s">
         <v>148</v>
       </c>
@@ -11931,7 +11978,7 @@
       </c>
       <c r="G255" s="61"/>
     </row>
-    <row r="256" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="66" t="s">
         <v>148</v>
       </c>
@@ -11952,7 +11999,7 @@
       </c>
       <c r="G256" s="61"/>
     </row>
-    <row r="257" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="66" t="s">
         <v>148</v>
       </c>
@@ -11973,7 +12020,7 @@
       </c>
       <c r="G257" s="61"/>
     </row>
-    <row r="258" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="66" t="s">
         <v>148</v>
       </c>
@@ -11994,7 +12041,7 @@
       </c>
       <c r="G258" s="61"/>
     </row>
-    <row r="259" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="66" t="s">
         <v>148</v>
       </c>
@@ -12015,7 +12062,7 @@
       </c>
       <c r="G259" s="61"/>
     </row>
-    <row r="260" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="66" t="s">
         <v>148</v>
       </c>
@@ -12036,7 +12083,7 @@
       </c>
       <c r="G260" s="61"/>
     </row>
-    <row r="261" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="66" t="s">
         <v>148</v>
       </c>
@@ -12057,7 +12104,7 @@
       </c>
       <c r="G261" s="61"/>
     </row>
-    <row r="262" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="66" t="s">
         <v>148</v>
       </c>
@@ -12078,7 +12125,7 @@
       </c>
       <c r="G262" s="61"/>
     </row>
-    <row r="263" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="66" t="s">
         <v>148</v>
       </c>
@@ -12099,7 +12146,7 @@
       </c>
       <c r="G263" s="61"/>
     </row>
-    <row r="264" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="66" t="s">
         <v>148</v>
       </c>
@@ -12120,7 +12167,7 @@
       </c>
       <c r="G264" s="61"/>
     </row>
-    <row r="265" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="66" t="s">
         <v>148</v>
       </c>
@@ -12141,7 +12188,7 @@
       </c>
       <c r="G265" s="61"/>
     </row>
-    <row r="266" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="66" t="s">
         <v>148</v>
       </c>
@@ -12162,7 +12209,7 @@
       </c>
       <c r="G266" s="61"/>
     </row>
-    <row r="267" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="66" t="s">
         <v>148</v>
       </c>
@@ -12183,7 +12230,7 @@
       </c>
       <c r="G267" s="61"/>
     </row>
-    <row r="268" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="66" t="s">
         <v>148</v>
       </c>
@@ -12204,7 +12251,7 @@
       </c>
       <c r="G268" s="61"/>
     </row>
-    <row r="269" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="66" t="s">
         <v>148</v>
       </c>
@@ -12225,7 +12272,7 @@
       </c>
       <c r="G269" s="61"/>
     </row>
-    <row r="270" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="66" t="s">
         <v>148</v>
       </c>
@@ -12246,7 +12293,7 @@
       </c>
       <c r="G270" s="61"/>
     </row>
-    <row r="271" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row ht="116" r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="66" t="s">
         <v>148</v>
       </c>
@@ -12267,7 +12314,7 @@
       </c>
       <c r="G271" s="61"/>
     </row>
-    <row r="272" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="66" t="s">
         <v>148</v>
       </c>
@@ -12288,7 +12335,7 @@
       </c>
       <c r="G272" s="61"/>
     </row>
-    <row r="273" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="66" t="s">
         <v>148</v>
       </c>
@@ -12309,7 +12356,7 @@
       </c>
       <c r="G273" s="61"/>
     </row>
-    <row r="274" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="66" t="s">
         <v>148</v>
       </c>
@@ -12330,7 +12377,7 @@
       </c>
       <c r="G274" s="61"/>
     </row>
-    <row r="275" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="66" t="s">
         <v>148</v>
       </c>
@@ -12351,7 +12398,7 @@
       </c>
       <c r="G275" s="61"/>
     </row>
-    <row r="276" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="66" t="s">
         <v>148</v>
       </c>
@@ -12372,7 +12419,7 @@
       </c>
       <c r="G276" s="61"/>
     </row>
-    <row r="277" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="66" t="s">
         <v>148</v>
       </c>
@@ -12393,7 +12440,7 @@
       </c>
       <c r="G277" s="61"/>
     </row>
-    <row r="278" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="66" t="s">
         <v>148</v>
       </c>
@@ -12414,7 +12461,7 @@
       </c>
       <c r="G278" s="61"/>
     </row>
-    <row r="279" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="66" t="s">
         <v>148</v>
       </c>
@@ -12435,7 +12482,7 @@
       </c>
       <c r="G279" s="61"/>
     </row>
-    <row r="280" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="66" t="s">
         <v>148</v>
       </c>
@@ -12458,7 +12505,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="66" t="s">
         <v>148</v>
       </c>
@@ -12481,7 +12528,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="66" t="s">
         <v>148</v>
       </c>
@@ -12504,7 +12551,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="66" t="s">
         <v>148</v>
       </c>
@@ -12527,7 +12574,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="66" t="s">
         <v>148</v>
       </c>
@@ -12550,7 +12597,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="66" t="s">
         <v>148</v>
       </c>
@@ -12573,7 +12620,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="66" t="s">
         <v>148</v>
       </c>
@@ -12596,7 +12643,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="66" t="s">
         <v>148</v>
       </c>
@@ -12619,7 +12666,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="66" t="s">
         <v>148</v>
       </c>
@@ -12642,7 +12689,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="66" t="s">
         <v>148</v>
       </c>
@@ -12665,7 +12712,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="66" t="s">
         <v>148</v>
       </c>
@@ -12688,7 +12735,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="63.75" customHeight="1" r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="66" t="s">
         <v>148</v>
       </c>
@@ -12711,7 +12758,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="90.75" customHeight="1" r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="66" t="s">
         <v>148</v>
       </c>
@@ -12734,7 +12781,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="66" t="s">
         <v>148</v>
       </c>
@@ -12757,7 +12804,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="66" t="s">
         <v>148</v>
       </c>
@@ -12780,7 +12827,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="66" t="s">
         <v>148</v>
       </c>
@@ -12803,7 +12850,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="66" t="s">
         <v>148</v>
       </c>
@@ -12826,7 +12873,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="66" t="s">
         <v>148</v>
       </c>
@@ -12849,7 +12896,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="66" t="s">
         <v>148</v>
       </c>
@@ -12872,7 +12919,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="66" t="s">
         <v>148</v>
       </c>
@@ -12893,7 +12940,7 @@
       </c>
       <c r="G299" s="61"/>
     </row>
-    <row r="300" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="66" t="s">
         <v>148</v>
       </c>
@@ -12916,7 +12963,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="66" t="s">
         <v>148</v>
       </c>
@@ -12939,7 +12986,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="66" t="s">
         <v>148</v>
       </c>
@@ -12962,7 +13009,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="66" t="s">
         <v>148</v>
       </c>
@@ -12985,7 +13032,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="66" t="s">
         <v>148</v>
       </c>
@@ -13008,7 +13055,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="66" t="s">
         <v>148</v>
       </c>
@@ -13031,7 +13078,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row ht="58" r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="66" t="s">
         <v>148</v>
       </c>
@@ -13054,7 +13101,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row ht="88.5" customHeight="1" r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="66" t="s">
         <v>148</v>
       </c>
